--- a/PhoneInfoServerIIS/Dev/1.表命名规则.xlsx
+++ b/PhoneInfoServerIIS/Dev/1.表命名规则.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ll\Desktop\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C\PhoneInfoServerIIS\PhoneInfoServerIIS\Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983179A1-5DA2-428C-839C-1E3AB3D03F03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FC0FEE-8FDE-4D73-9D78-2DA0238BCB83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="index" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表汇总!$A$1:$L$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">表汇总!$A$1:$L$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="150">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AUTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,9 +156,6 @@
     <t>QOE_VIDEO_TABLE</t>
   </si>
   <si>
-    <t>TTLTE_CELINFO_TABLE</t>
-  </si>
-  <si>
     <t>UP_MMMRTABLE</t>
   </si>
   <si>
@@ -325,10 +318,6 @@
     <t>demo</t>
   </si>
   <si>
-    <t>TtLTE_CELINFO_Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>province</t>
   </si>
   <si>
@@ -519,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>User_Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -560,6 +545,56 @@
   </si>
   <si>
     <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>TtLTE_CELLINFO_Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTE_CELLINFO_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TTLTE_CELLINFO_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change table name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+  </si>
+  <si>
+    <t>Dt_Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> as String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Templete</t>
+  </si>
+  <si>
+    <t>User_Templete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Templete_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -684,7 +719,7 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -728,6 +763,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1026,19 +1064,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1046,21 +1084,29 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="8">
         <v>43454</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="8">
+        <v>43470</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1197,7 +1243,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3"/>
     </row>
@@ -1257,13 +1303,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1279,14 +1325,14 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="1"/>
@@ -1303,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
@@ -1325,11 +1371,11 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
@@ -1341,21 +1387,19 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1364,19 +1408,21 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1391,13 +1437,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1412,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1433,13 +1479,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1454,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1475,13 +1521,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1496,13 +1542,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1513,10 +1559,18 @@
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1565,7 +1619,7 @@
       <c r="K17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L5" xr:uid="{EDB66143-3211-46EE-B0DC-E44CC4D27631}"/>
+  <autoFilter ref="A1:L4" xr:uid="{EDB66143-3211-46EE-B0DC-E44CC4D27631}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1574,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE53D32-BB3D-4B87-9E43-9B19943BD27D}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1587,443 +1641,491 @@
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.625" customWidth="1"/>
     <col min="15" max="15" width="19.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="T2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1"/>
       <c r="J7" s="12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+        <v>124</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1"/>
       <c r="J9" s="12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2031,32 +2133,32 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -2064,34 +2166,34 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2099,186 +2201,361 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="1"/>
       <c r="J15" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1"/>
       <c r="J16" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1"/>
       <c r="J18" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I24" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I26" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I30" t="s">
+        <v>144</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.15">
+      <c r="I37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2299,19 +2576,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -2320,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
